--- a/excelTemplate/INVOICETemplate.xlsx
+++ b/excelTemplate/INVOICETemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700"/>
+    <workbookView windowWidth="28000" windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,6 +283,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -290,23 +297,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -322,6 +352,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -329,9 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,51 +390,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -407,6 +399,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,13 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,19 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,31 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,61 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +499,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,13 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +583,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,6 +1492,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1501,17 +1555,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,199 +1577,149 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="70" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="75" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2401,8 +2401,8 @@
   <sheetPr/>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
